--- a/xlsx/美国国家侦察局_intext.xlsx
+++ b/xlsx/美国国家侦察局_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维吉尼亚州</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国国家侦察局</t>
+    <t>政策_政策_美国_美国国家侦察局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%88%98%E7%95%A5%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%B5%E5%AF%9F%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>偵察衛星</t>
+    <t>侦察卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%94%E5%B1%82</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%AD%87%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>洛歇馬丁</t>
+    <t>洛歇马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A7%91%E5%AD%B8%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國科學家聯盟</t>
+    <t>美国科学家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
